--- a/TestData/DataSheet.xlsx
+++ b/TestData/DataSheet.xlsx
@@ -5,49 +5,32 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\testvox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KhanBankApp\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasheet_Signup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">Valid Data For  Sign up </t>
+  </si>
+  <si>
+    <t>R_number3</t>
+  </si>
   <si>
     <t xml:space="preserve">Email id </t>
   </si>
   <si>
     <t>Phone number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valid Data For  Sign up </t>
-  </si>
-  <si>
-    <t>R_number1</t>
-  </si>
-  <si>
-    <t>R_number2</t>
-  </si>
-  <si>
-    <t>R_number3</t>
-  </si>
-  <si>
-    <t>Я</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>infura7@gmail.com</t>
@@ -93,14 +76,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,44 +378,43 @@
     <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>91101304</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
+      <c r="C3">
+        <v>88131370</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>91101304</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>91101305</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>88131370</v>
       </c>
     </row>
@@ -440,6 +423,6 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TestData/DataSheet.xlsx
+++ b/TestData/DataSheet.xlsx
@@ -1,64 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KhanBankApp\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasheet_Signup" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasheet_Signup" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">Valid Data For  Sign up </t>
-  </si>
-  <si>
-    <t>R_number3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email id </t>
-  </si>
-  <si>
-    <t>Phone number</t>
-  </si>
-  <si>
-    <t>infura7@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF008080"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <b val="1"/>
+      <color rgb="FF008080"/>
+      <sz val="9.800000000000001"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,32 +57,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -364,57 +413,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Data For  Sign up </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>reg number</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Email id </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abh</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>%$^%$</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>91101304</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>test@test</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>88131370</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>91101305</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>91101304</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>88131370</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>88131370</v>
       </c>
     </row>
@@ -422,7 +562,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/TestData/DataSheet.xlsx
+++ b/TestData/DataSheet.xlsx
@@ -3,10 +3,16 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Datasheet_Signup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datasheet_Signup1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Valid_Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Invalid_Email" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Datasheet_Signup4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Datasheet_Signup3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="OTP_SignUp" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Datasheet_Signup2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -38,6 +44,31 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <color rgb="FF222222"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,15 +92,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -420,22 +460,22 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.140625" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="20.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14.28515625" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="20.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.140625" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="11" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Valid Data For  Sign up </t>
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">InValid Data For  Sign up </t>
         </is>
       </c>
     </row>
@@ -455,9 +495,9 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Comments</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Status </t>
         </is>
       </c>
     </row>
@@ -521,41 +561,60 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91101304</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>test@test</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>88131370</v>
+        <v>11111111</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91101304</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>test@gmail.com</t>
+        <v>11111111</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>88131370</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12345678</v>
+        <v>11111111</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
           <t>infura7@gmail.com</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>88131370</v>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>##@#!</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -563,10 +622,996 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22.42578125" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="17.28515625" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="16.140625" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="40.140625" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+    <col width="40.140625" customWidth="1" style="10" min="6" max="6"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
+    <col width="16" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
+    <col width="19" bestFit="1" customWidth="1" style="10" min="9" max="9"/>
+    <col width="9.140625" customWidth="1" style="10" min="10" max="26"/>
+    <col width="9.140625" customWidth="1" style="10" min="27" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" customHeight="1" s="10">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Registration number</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Login in https://mail.infura.mn:2096/</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">OTP Page </t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>OTP Received?</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>New Signup page</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" s="10">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>УЗ92110503</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>test01@infura.mn</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>11221122</v>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="n"/>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="1" s="10">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>УЗ92110617</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>test02@infura.mn</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>11221123</v>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="1" s="10">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>УЗ92110623</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>test03@infura.mn</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>11221124</v>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="n"/>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" s="10">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>УЗ91101817</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>test04@infura.mn</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>11221125</v>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" s="10">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>УЗ91101703</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>test05@infura.mn</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="n">
+        <v>11221126</v>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" s="10">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>УЗ91101401</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>test06@infura.mn</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>11221127</v>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Valid</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="n"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" s="10">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>УЗ91101304</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>test07@infura.mn</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>11221128</v>
+      </c>
+      <c r="D8" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="1" s="10">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>УЗ91101207</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>test08@infura.mn</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>11221120</v>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" s="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>УЗ91102017</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>test09@infura.mn</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>11221130</v>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>Autotest123$</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="1" s="10">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="6" t="n"/>
+      <c r="D11" s="6" t="n"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" s="10">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="6" t="n"/>
+      <c r="D12" s="6" t="n"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1" s="10">
+      <c r="A13" s="6" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="6" t="n"/>
+      <c r="D13" s="6" t="n"/>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" tooltip="mailto:test01@infura.mn" display="mailto:test01@infura.mn" r:id="rId1"/>
+    <hyperlink ref="B3" tooltip="mailto:test02@infura.mn" display="mailto:test02@infura.mn" r:id="rId2"/>
+    <hyperlink ref="B4" tooltip="mailto:test03@infura.mn" display="mailto:test03@infura.mn" r:id="rId3"/>
+    <hyperlink ref="B5" tooltip="mailto:test04@infura.mn" display="mailto:test04@infura.mn" r:id="rId4"/>
+    <hyperlink ref="B6" tooltip="mailto:test05@infura.mn" display="mailto:test05@infura.mn" r:id="rId5"/>
+    <hyperlink ref="B7" tooltip="mailto:test06@infura.mn" display="mailto:test06@infura.mn" r:id="rId6"/>
+    <hyperlink ref="B8" tooltip="mailto:test07@infura.mn" display="mailto:test07@infura.mn" r:id="rId7"/>
+    <hyperlink ref="B9" tooltip="mailto:test08@infura.mn" display="mailto:test08@infura.mn" r:id="rId8"/>
+    <hyperlink ref="B10" tooltip="mailto:test09@infura.mn" display="mailto:test09@infura.mn" r:id="rId9"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.140625" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="11" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+    <col width="9.140625" customWidth="1" style="10" min="5" max="20"/>
+    <col width="9.140625" customWidth="1" style="10" min="21" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">InValid Data For  Sign up </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>reg number</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Email id </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Status </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11559988</v>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Хүчинтэй и-мэйл хаягаа оруулна уу</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="35.28515625" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">InValid Data For  Sign up </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>reg number</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Email id </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Error message </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Status </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Enter registration number</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abh</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Enter registration number</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>%$^%$</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>88131370</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Enter registration number</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11111111</v>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8813137</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Please enter the valid mobile number</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11111111</v>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Please enter the valid mobile number</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11111111</v>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>##@#!</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Please enter the valid mobile number</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Test passes</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+    <col width="28.85546875" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
+    <col width="11" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>InValid Data For  Sign up Data driven</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>D1 Will get select one back value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>reg number</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Email id </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ErrorMessage</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>У</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>invalid@email.com</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1122336655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>О</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>З</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jhkjh</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>invalid@email.com</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1122336655</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Б</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$$</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>invalid@email.com</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1122336655</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9.140625" customWidth="1" style="10" min="1" max="1"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Invalid OTPs</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Limit</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Invalid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>112233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Limit</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11223344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.28515625" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
+    <col width="20.7109375" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="14.28515625" bestFit="1" customWidth="1" style="10" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valid Data For  Sign up </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>reg number</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Email id </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>91101304</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>test@test</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>88131370</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>91101304</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>test@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>88131370</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12345679</v>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>infura7@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>88131370</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>